--- a/public/templates/测试记录表批导模板V1.0.xlsx
+++ b/public/templates/测试记录表批导模板V1.0.xlsx
@@ -625,12 +625,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -678,6 +678,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -686,9 +708,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -700,14 +722,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -721,6 +751,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -729,45 +791,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -781,49 +815,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -835,7 +828,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -862,187 +855,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1071,6 +1058,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1082,6 +1078,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1113,30 +1120,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -1158,161 +1141,165 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1725,7 +1712,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -1809,11 +1796,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C1001">
       <formula1>备注!$D$2:$D$57</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H$1:H$1048576">
+      <formula1>"RANGE_VALUE,DEFINITE_VALUE"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F1001">
       <formula1>备注!$B$2:$B$26</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H1047">
-      <formula1>备注!$A$2:$A$3</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
